--- a/delta2/lib_e/osi_unsorted/bumblebee.xlsx
+++ b/delta2/lib_e/osi_unsorted/bumblebee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_e/osi_unsorted/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BE0C03-65AB-6045-AA79-EC13B9A2C9F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF99FF3-D9F9-E54A-8EA3-AA4E4666CB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{2B361B8B-B20C-1B4A-9CA2-9DEA1E5C6017}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="229">
   <si>
     <t>eid</t>
   </si>
@@ -821,15 +821,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F104" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}" name="Table1" displayName="Table1" ref="A1:F104" totalsRowShown="0" dataDxfId="6">
   <autoFilter ref="A1:F104" xr:uid="{C77889FB-1522-0A4D-8EB6-D259755FECDF}"/>
   <tableColumns count="6">
-    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="5"/>
-    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{207EDF8E-E395-1D42-A573-5F5B69D0FCE9}" name="description" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{30300E6C-70B6-5F46-8D15-16F2EDD21014}" name="ns_meta" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{5516EDED-B058-144E-976C-0B23FABA65AE}" name="eid" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{0B947D48-DA4A-7C49-9C7F-01EFE6AFBBF9}" name="map_pid" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{1ED6D649-59BA-E14C-BBA6-23BD7EBDEB94}" name="eid_type" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{16A9BF58-E113-7848-AEB0-6F8A9E864CF3}" name="evidence" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{207EDF8E-E395-1D42-A573-5F5B69D0FCE9}" name="description" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{30300E6C-70B6-5F46-8D15-16F2EDD21014}" name="ns_meta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1154,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADA5849-2682-F643-8842-EFF560F6FB5C}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2033,7 +2033,9 @@
       <c r="A51" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="C51" s="1" t="s">
         <v>130</v>
       </c>
